--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1386976.881598875</v>
+        <v>1458312.688632164</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.204079715</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6134801.712066209</v>
+        <v>6602416.06466609</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>236.5734645353203</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -665,10 +667,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>346.9297734197944</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -820,7 +822,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>24.62703520776622</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>81.0109880549457</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +901,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>345.4056667988693</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>337.0311136373214</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>65.07405371603568</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418.7069096796286</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>45.10878876340973</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1339,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>236.1728263726195</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>8.768158129710827</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>393.1243189284938</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>46.2253027104011</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>289.571390521655</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,10 +1618,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>272.1494839753895</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2485,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9536135021265</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2719,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>64.34965323462481</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>24.40875262509115</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>50.05924486566766</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3196,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>170.6620894478689</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>212.9450041785558</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>69.45405731752525</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>5.990622819018522</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765165</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.6392935584443</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>101.448893902469</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>204.1476381228714</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>24.34318456170477</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,7 +3954,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>78.47678022721499</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3977,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>22.28782598961692</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4031,16 +4033,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>20.63055680137645</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4144,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.5162869994153</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.512437976118</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.369965159541</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4337,7 +4339,7 @@
         <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
         <v>632.7278666362198</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2235.974838049816</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.119383460849</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.017324080564</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.771604420622</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1064.863269197077</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P3" t="n">
-        <v>1064.863269197077</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q3" t="n">
-        <v>1605.602207829152</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762.8950539462403</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>590.3333424294652</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>590.3333424294652</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>420.5753386802025</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>243.8682846419587</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>78.27700966778636</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>78.27700966778636</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431415</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.133343351119</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.7136726652275</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>489.9592645846401</v>
+        <v>489.959264584641</v>
       </c>
       <c r="C5" t="n">
-        <v>455.8571958084675</v>
+        <v>455.8571958084684</v>
       </c>
       <c r="D5" t="n">
-        <v>423.987815023316</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>394.2534742220153</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.64701815018</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X5" t="n">
-        <v>920.5045547294905</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y5" t="n">
-        <v>916.2588350695479</v>
+        <v>916.2588350695488</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392439</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>962.7013733912472</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>790.1396618744722</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D7" t="n">
         <v>624.2616690759949</v>
@@ -4720,7 +4722,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4759,16 +4761,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1899.357821876422</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1627.331417462714</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1381.939662796126</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1154.519992110234</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>981.0148405224497</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>542.872367705873</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>511.0029869207216</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4811,19 +4813,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1423.298891966343</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.196832586058</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1403.951112926115</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>1038.799596036619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>1038.799596036619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M9" t="n">
-        <v>1038.799596036619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N9" t="n">
-        <v>1038.799596036619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O9" t="n">
-        <v>1175.902039375362</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.8743303037888</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>617.3126187870138</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>617.3126187870138</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4957,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1726.530778788964</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1454.504374375255</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1209.112619708668</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>981.692949022776</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.848389379505</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1610.848389379505</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1174.93860455395</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.93860455395</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>747.0711749631575</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>345.6733435864214</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L11" t="n">
-        <v>1396.102936374607</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374607</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2797.463257455335</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>2434.846307389162</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>2029.990852800195</v>
+        <v>3365.851340605459</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.848389379505</v>
+        <v>2946.70887718477</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.848389379505</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>1061.454444409171</v>
+        <v>774.5036193892311</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.454444409171</v>
+        <v>1729.046668200335</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.454444409171</v>
+        <v>1729.046668200335</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.454444409171</v>
+        <v>1729.046668200335</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>1729.046668200335</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135.184560268659</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518839</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2604.675963304948</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2358.796516883403</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2358.796516883403</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.841008753834</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.814604340125</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.422849673538</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.003178987646</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1619.705114763052</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>1327.208760700774</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
-        <v>891.2989758752185</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>457.5242310335137</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335137</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1396.102936374607</v>
+        <v>1987.494405187086</v>
       </c>
       <c r="M14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="N14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.847578183741</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705114763052</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>1619.705114763052</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>479.4321036325088</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1135.184560268659</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C16" t="n">
-        <v>962.6228487518839</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.906563138033</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U16" t="n">
-        <v>2358.796516883403</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.841008753834</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W16" t="n">
-        <v>1799.814604340125</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.422849673538</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.003178987646</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="17">
@@ -5519,7 +5521,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
         <v>1463.168637987181</v>
@@ -5543,19 +5545,19 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5759,34 +5761,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>4481.15777025722</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>4481.15777025722</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>4481.15777025722</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>4481.15777025722</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>4481.15777025722</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>4481.15777025722</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>5021.896708889295</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6072,13 +6074,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>751.6989919312866</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>904.7306530065579</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>738.8526602080806</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>569.0946564588178</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6303,28 +6305,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1628.781199980813</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1011.560997133398</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C28" t="n">
-        <v>838.9992856166232</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D28" t="n">
-        <v>673.1212928181459</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>332.8517649768962</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>167.2604900027239</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6412,22 +6414,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2513.605954495037</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2235.172953748142</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1948.217445618573</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1676.191041204865</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1430.799286538277</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1203.379615852385</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6451,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D31" t="n">
-        <v>639.1929661716164</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E31" t="n">
-        <v>469.4349624223536</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F31" t="n">
-        <v>292.7279083841098</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G31" t="n">
-        <v>292.7279083841098</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>152.8257340744843</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="32">
@@ -6686,37 +6688,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6780,22 +6782,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1176.997895781659</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>1004.436184264884</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>838.5581914664062</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>668.8001877171434</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1368.816514500646</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6923,37 +6925,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1208.704442680528</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2283.764408933388</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3440.812244143939</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4566.543227580386</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>1162.814665109382</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>990.252953592607</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>824.3749607941297</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>654.6169570448669</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>477.9099030066232</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>312.3186280324508</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>172.4164537228253</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3572.656769371182</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4400.966644204577</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>3435.538389938438</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>3262.976678421663</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>3097.098685623185</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>2927.340681873923</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>2750.633627835679</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>4937.583347300076</v>
       </c>
       <c r="U40" t="n">
-        <v>2313.799635050031</v>
+        <v>4659.150346553181</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>4372.194838423612</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>4100.168434009904</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>3854.776679343317</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>3627.357008657425</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1287.687277984248</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>849.5448051676717</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>747.0711749631575</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>747.0711749631575</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>747.0711749631575</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864214</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677763</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094008</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M41" t="n">
-        <v>750.6905954094008</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.254791162024</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="O41" t="n">
-        <v>2139.818986914647</v>
+        <v>4688.504965942685</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942685</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942685</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942685</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126522</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.668109022718</v>
+        <v>4384.785864999561</v>
       </c>
       <c r="U41" t="n">
-        <v>2463.445806339735</v>
+        <v>4384.785864999561</v>
       </c>
       <c r="V41" t="n">
-        <v>2100.828856273562</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>1695.973401684595</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>1695.973401684595</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>1287.687277984248</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1135.184560268659</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>962.6228487518839</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>118.359174633707</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>118.359174633707</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2166.977898164416</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1880.022390034847</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1607.995985621138</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1362.604230954551</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>1135.184560268659</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.176241446486</v>
+        <v>2104.363000055494</v>
       </c>
       <c r="C44" t="n">
-        <v>1209.033768629909</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>773.1239838043537</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>773.1239838043537</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>345.2565542135613</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>750.6905954094008</v>
+        <v>2413.440251182875</v>
       </c>
       <c r="M44" t="n">
-        <v>750.6905954094008</v>
+        <v>2413.440251182875</v>
       </c>
       <c r="N44" t="n">
-        <v>750.6905954094008</v>
+        <v>3539.171234619322</v>
       </c>
       <c r="O44" t="n">
-        <v>1445.254791162024</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="P44" t="n">
-        <v>2139.818986914647</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="Q44" t="n">
-        <v>2686.317772873242</v>
+        <v>4519.350901189629</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942685</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126522</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4384.785864999561</v>
       </c>
       <c r="U44" t="n">
-        <v>2481.76193563174</v>
+        <v>4125.563562316577</v>
       </c>
       <c r="V44" t="n">
-        <v>2481.76193563174</v>
+        <v>3762.946612250404</v>
       </c>
       <c r="W44" t="n">
-        <v>2481.76193563174</v>
+        <v>3358.091157661437</v>
       </c>
       <c r="X44" t="n">
-        <v>2481.76193563174</v>
+        <v>2938.948694240748</v>
       </c>
       <c r="Y44" t="n">
-        <v>2073.475811931394</v>
+        <v>2530.662570540401</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>818.5753319207897</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>646.0136204040147</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>480.1356276055374</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>310.3776238562746</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>310.3776238562746</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.7700993188537</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1010.393950639777</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -8058,28 +8060,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>658.3613220306675</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>112.1603739174598</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,22 +8300,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,10 +8531,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>138.4873165037804</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>28.24564908821003</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,13 +8929,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932202</v>
+        <v>630.4235620779154</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9003,19 +9005,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>363.2306375284824</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,10 +9169,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>92.22506899525797</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>687.634866222525</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>138.100405827046</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>500.2430848324429</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4545770548052</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>677.968600966496</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,13 +10600,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>548.405358162976</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097205</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>406.6119088543401</v>
       </c>
       <c r="P41" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>1060.671891366591</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>121.2143535006462</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>247.8619215264424</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.682581114583172</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>111.4236523045822</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>144.189657566756</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>125.2343690875792</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>74.15349933190441</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.0118993322381</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>37.71410486740375</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.277894049992426</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>29.99283294136586</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>18.31929241554616</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.0953302292553</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>69.71657238081275</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.446659489829528</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>330.1017930748309</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>154.8431424426403</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>63.43016517136664</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>197.1718905122107</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>411.473222098794</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>235.9995228547768</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.62918697961754</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>383939.6792355301</v>
+        <v>543980.2006949276</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>383939.6792355302</v>
+        <v>543980.2006949275</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>580078.2097036401</v>
+        <v>580078.20970364</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580078.20970364</v>
+        <v>580078.2097036401</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>383939.6792355301</v>
+        <v>543980.2006949276</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>383939.6792355301</v>
+        <v>543980.2006949276</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="D2" t="n">
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="F2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="G2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961468</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961468</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="J2" t="n">
         <v>368800.3088961466</v>
@@ -26344,16 +26346,16 @@
         <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="N2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="O2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="P2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919846</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260773</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="F4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165932</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165932</v>
       </c>
       <c r="P4" t="n">
-        <v>18323.4193897997</v>
+        <v>25961.31084165932</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232881</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232881</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53366.3994545364</v>
+        <v>-53366.39945453647</v>
       </c>
       <c r="C6" t="n">
-        <v>170333.2991295084</v>
+        <v>170333.2991295085</v>
       </c>
       <c r="D6" t="n">
         <v>170333.2991295084</v>
       </c>
       <c r="E6" t="n">
-        <v>172949.4880523384</v>
+        <v>97957.68979624857</v>
       </c>
       <c r="F6" t="n">
-        <v>183120.4846527946</v>
+        <v>248623.4433679965</v>
       </c>
       <c r="G6" t="n">
-        <v>105338.5145940421</v>
+        <v>234308.1823675439</v>
       </c>
       <c r="H6" t="n">
-        <v>263397.9915401516</v>
+        <v>263397.9915401514</v>
       </c>
       <c r="I6" t="n">
         <v>263397.9915401514</v>
       </c>
       <c r="J6" t="n">
-        <v>88746.64282244528</v>
+        <v>88746.64282244525</v>
       </c>
       <c r="K6" t="n">
         <v>263397.9915401514</v>
@@ -26552,16 +26554,16 @@
         <v>263397.9915401514</v>
       </c>
       <c r="M6" t="n">
-        <v>254908.9098368106</v>
+        <v>137646.9032044606</v>
       </c>
       <c r="N6" t="n">
         <v>263397.9915401514</v>
       </c>
       <c r="O6" t="n">
-        <v>183120.4846527946</v>
+        <v>248623.4433679965</v>
       </c>
       <c r="P6" t="n">
-        <v>183120.4846527946</v>
+        <v>248623.4433679965</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778141</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990741</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778141</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778141</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990741</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>185.4631102447384</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>12.06100714571733</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>63.14631452530519</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>161.926849064976</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>86.14502017843063</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>86.5576416575629</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>219.0118993322382</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.329665100430077</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>47.91312667565438</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34705,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -34778,28 +34780,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>658.3613220306675</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>112.1603739174598</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>138.4873165037804</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>28.24564908821003</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,13 +35649,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932202</v>
+        <v>630.4235620779154</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35664,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>363.2306375284824</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35887,10 +35889,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>92.22506899525797</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,22 +36129,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>687.634866222525</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36606,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>138.100405827046</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>500.2430848324429</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4545770548052</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>677.968600966496</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37318,13 +37320,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>548.405358162976</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097205</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>406.6119088543401</v>
       </c>
       <c r="P41" t="n">
-        <v>673.2333292163985</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>1060.671891366591</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>121.2143535006462</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1458312.688632164</v>
+        <v>1457706.601003267</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.204079715</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6602416.06466609</v>
+        <v>6602416.064666089</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.5734645353203</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -667,7 +667,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>241.7281925145228</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>81.0109880549457</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>345.4056667988693</v>
+        <v>246.0875767325615</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -958,13 +958,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>116.0434079398616</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1147,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>45.10878876340973</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>150.3256848869542</v>
       </c>
     </row>
     <row r="9">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>13.99728392830417</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>19.66484339937357</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>393.1243189284938</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1539,7 +1539,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513553</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>272.1494839753895</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>29.92029206558705</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>60.94899222869618</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225757</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>43.77283765622057</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>50.30825486907106</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>167.6892286721828</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>64.34965323462481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>27.07950026194634</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9450041785558</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>69.45405731752525</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>173.7040795765165</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695784</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>204.1476381228714</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.34318456170477</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>22.28782598961692</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4030,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>63.02341241305043</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981.0148405224497</v>
+        <v>1195.45039114996</v>
       </c>
       <c r="C2" t="n">
-        <v>542.872367705873</v>
+        <v>757.3079183333832</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>321.3981335078277</v>
       </c>
       <c r="E2" t="n">
         <v>77.22824207901677</v>
@@ -4336,10 +4336,10 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
         <v>632.7278666362198</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093304</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672615</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y2" t="n">
-        <v>1219.977936012672</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="3">
@@ -4424,13 +4424,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4512,25 +4512,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1324.277995859497</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
         <v>1324.277995859497</v>
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>489.959264584641</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C5" t="n">
-        <v>455.8571958084684</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D5" t="n">
         <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901678</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
         <v>1149.495958523325</v>
@@ -4585,34 +4585,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739147</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.647018150181</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X5" t="n">
-        <v>920.5045547294914</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y5" t="n">
-        <v>916.2588350695488</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4704,25 +4704,25 @@
         <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>624.2616690759949</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>624.2616690759949</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194209</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4846,10 +4846,10 @@
         <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2623.681342788512</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.395219088166</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,10 +4986,10 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2634.504334502149</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
         <v>2634.504334502149</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
         <v>1646.357049057731</v>
@@ -5041,10 +5041,10 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>424.1063803693496</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1258.456672327527</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
         <v>2333.516638580387</v>
@@ -5080,13 +5080,13 @@
         <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3365.851340605459</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>2946.70887718477</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>774.5036193892311</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>1729.046668200335</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1729.046668200335</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1729.046668200335</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1729.046668200335</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
         <v>1757.009860797663</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.266136395785</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>771.7044248790099</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>605.8264320805326</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E13" t="n">
-        <v>436.0684283312698</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F13" t="n">
         <v>259.361374293026</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.190540178969</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.311093757424</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.878093010529</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.92258488096</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.896180467251</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.504425800664</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.084755114772</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055493</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238916</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>368.6685679808633</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>93.77009931885368</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885368</v>
@@ -5284,46 +5284,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1987.494405187086</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>3144.542240397637</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>3144.542240397637</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126521</v>
+        <v>4658.282448704717</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.78586499956</v>
+        <v>4438.215221577756</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316576</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250403</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661436</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>479.4321036325088</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.5053054384693</v>
+        <v>1068.801623571407</v>
       </c>
       <c r="C16" t="n">
-        <v>789.9435939216943</v>
+        <v>896.2399120546323</v>
       </c>
       <c r="D16" t="n">
-        <v>624.065601123217</v>
+        <v>730.361919256155</v>
       </c>
       <c r="E16" t="n">
-        <v>454.3075973739543</v>
+        <v>560.6039155068922</v>
       </c>
       <c r="F16" t="n">
-        <v>277.6005433357104</v>
+        <v>383.8968614686485</v>
       </c>
       <c r="G16" t="n">
-        <v>112.0092683615381</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
         <v>93.77009931885368</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2464.550262800109</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2186.117262053214</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1899.161753923644</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="W16" t="n">
-        <v>1627.135349509936</v>
+        <v>1733.431667642874</v>
       </c>
       <c r="X16" t="n">
-        <v>1381.743594843348</v>
+        <v>1488.039912976286</v>
       </c>
       <c r="Y16" t="n">
-        <v>1154.323924157457</v>
+        <v>1260.620242290395</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,46 +5521,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5764,19 +5764,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4481.15777025722</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4481.15777025722</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4481.15777025722</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4481.15777025722</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4481.15777025722</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4481.15777025722</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>5021.896708889295</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1017.756527079655</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>679.3168227644028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>509.55881901514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>332.8517649768962</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2604900027239</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.575145798642</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>383.8650950378992</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>218.2738200637269</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6891,19 +6891,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878938</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1162.814665109382</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>990.252953592607</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>824.3749607941297</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>654.6169570448669</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>477.9099030066232</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>312.3186280324508</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>172.4164537228253</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7174,34 +7174,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3435.538389938438</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>3262.976678421663</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>3097.098685623185</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>2927.340681873923</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>2750.633627835679</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>2585.042352861507</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4937.583347300076</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U40" t="n">
-        <v>4659.150346553181</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>4372.194838423612</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>4100.168434009904</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>3854.776679343317</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>3627.357008657425</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.7700993188537</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.7700993188537</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.7700993188537</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>3160.228192740442</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>4285.959176176888</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>4688.504965942685</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4688.504965942685</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942685</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942685</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126522</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999561</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4384.785864999561</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.7700993188537</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2639367364659</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>630.7022252196908</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>464.8242324212135</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>295.0662286719508</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>118.359174633707</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>118.359174633707</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>118.359174633707</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.7700993188537</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2551.18834051965</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2305.308894098105</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2026.87589335121</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1739.920385221641</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1467.893980807932</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1222.502226141345</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>995.0825554554531</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055494</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
         <v>2081.850044510426</v>
@@ -7642,10 +7642,10 @@
         <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>93.7700993188537</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.7700993188537</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7654,46 +7654,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2413.440251182875</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2413.440251182875</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>3539.171234619322</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>4519.350901189629</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4519.350901189629</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189629</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942685</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126522</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999561</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316577</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250404</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661437</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240748</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540401</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.7700993188537</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.266136395785</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790099</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805326</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312698</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F46" t="n">
-        <v>259.361374293026</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G46" t="n">
-        <v>93.7700993188537</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H46" t="n">
-        <v>93.7700993188537</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.7700993188537</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.190540178969</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.311093757424</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.878093010529</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.92258488096</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.896180467251</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.504425800664</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.084755114772</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>200.3264657984391</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8455,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6730111621171</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>28.24564908821003</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>630.4235620779154</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>363.2306375284824</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,19 +11068,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>406.6119088543401</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1060.671891366591</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.682581114583172</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>125.2343690875792</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.89506301241431</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>37.46509486400036</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.146865729424519</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>74.15349933190441</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>29.99283294136586</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>18.31929241554616</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>69.71657238081275</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>411.8858435779265</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>154.8431424426403</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>63.43016517136664</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>411.473222098794</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>154.8431424426413</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>543980.2006949275</v>
+        <v>543980.2006949276</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580078.20970364</v>
+        <v>580078.2097036401</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580078.2097036401</v>
+        <v>580078.20970364</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>543980.2006949276</v>
+        <v>543980.2006949275</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.123923286</v>
       </c>
       <c r="D2" t="n">
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>345850.0296919846</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="F2" t="n">
         <v>345850.0296919846</v>
       </c>
       <c r="G2" t="n">
-        <v>368800.3088961468</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961465</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961465</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="J2" t="n">
         <v>368800.3088961466</v>
@@ -26352,10 +26352,10 @@
         <v>368800.3088961466</v>
       </c>
       <c r="O2" t="n">
-        <v>345850.0296919846</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="P2" t="n">
-        <v>345850.0296919846</v>
+        <v>345850.0296919845</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260773</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>25961.31084165931</v>
       </c>
       <c r="F4" t="n">
-        <v>25961.31084165932</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26456,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>25961.31084165932</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="P4" t="n">
-        <v>25961.31084165932</v>
+        <v>25961.31084165931</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>71265.2754823288</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232881</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232881</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53366.39945453647</v>
+        <v>-53366.39945453638</v>
       </c>
       <c r="C6" t="n">
-        <v>170333.2991295085</v>
+        <v>170333.2991295084</v>
       </c>
       <c r="D6" t="n">
         <v>170333.2991295084</v>
       </c>
       <c r="E6" t="n">
-        <v>97957.68979624857</v>
+        <v>97852.50017399379</v>
       </c>
       <c r="F6" t="n">
-        <v>248623.4433679965</v>
+        <v>248518.2537457419</v>
       </c>
       <c r="G6" t="n">
-        <v>234308.1823675439</v>
+        <v>234284.958028161</v>
       </c>
       <c r="H6" t="n">
-        <v>263397.9915401514</v>
+        <v>263374.7672007688</v>
       </c>
       <c r="I6" t="n">
-        <v>263397.9915401514</v>
+        <v>263374.7672007688</v>
       </c>
       <c r="J6" t="n">
-        <v>88746.64282244525</v>
+        <v>88723.41848306262</v>
       </c>
       <c r="K6" t="n">
-        <v>263397.9915401514</v>
+        <v>263374.7672007688</v>
       </c>
       <c r="L6" t="n">
-        <v>263397.9915401514</v>
+        <v>263374.7672007688</v>
       </c>
       <c r="M6" t="n">
-        <v>137646.9032044606</v>
+        <v>137623.6788650779</v>
       </c>
       <c r="N6" t="n">
-        <v>263397.9915401514</v>
+        <v>263374.7672007688</v>
       </c>
       <c r="O6" t="n">
-        <v>248623.4433679965</v>
+        <v>248518.2537457417</v>
       </c>
       <c r="P6" t="n">
-        <v>248623.4433679965</v>
+        <v>248518.2537457418</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778141</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990741</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778141</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778141</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990741</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185.4631102447384</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>187.7088048787649</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27432,13 +27432,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>161.926849064976</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>86.14502017843063</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>54.79268646174569</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>369.8422500230727</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>253.8775775763889</v>
       </c>
     </row>
     <row r="9">
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>143.6516710866791</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34704,13 +34704,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>658.3613220306675</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>200.3264657984391</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35175,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6730111621171</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>28.24564908821003</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>630.4235620779154</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>363.2306375284824</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36913,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>406.6119088543401</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,25 +38022,25 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1060.671891366591</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
